--- a/jpcore-r4/feature/swg2-observation-issues対策/observations-summary.xlsx
+++ b/jpcore-r4/feature/swg2-observation-issues対策/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Profile</t>
   </si>
@@ -47,60 +47,45 @@
     <t>Method</t>
   </si>
   <si>
-    <t>jp-observation-bodymeasurement</t>
-  </si>
-  <si>
-    <t>JP Core Observation BodyMeasurement Profile</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#vital-signs</t>
+    <t>jp-observation-labresult</t>
+  </si>
+  <si>
+    <t>JP Core Observation LabResult Profile</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/bodyMeasurement-code (preferred)</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/labResult-code (preferred)</t>
+  </si>
+  <si>
+    <t>dateTime, Period, Timing</t>
+  </si>
+  <si>
+    <t>Quantity, CodeableConcept, string</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>jp-observation-physicalexam</t>
+  </si>
+  <si>
+    <t>JP Core Observation PhysicalExam Profile</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#exam</t>
+  </si>
+  <si>
+    <t>JP Core Physical Exam Codes#physical-findings</t>
   </si>
   <si>
     <t>dateTime, Period</t>
   </si>
   <si>
-    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
-  </si>
-  <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>jp-observation-labresult</t>
-  </si>
-  <si>
-    <t>JP Core Observation LabResult Profile</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/labResult-code (preferred)</t>
-  </si>
-  <si>
-    <t>dateTime, Period, Timing</t>
-  </si>
-  <si>
-    <t>Quantity, CodeableConcept, string</t>
-  </si>
-  <si>
-    <t>jp-observation-physicalexam</t>
-  </si>
-  <si>
-    <t>JP Core Observation PhysicalExam Profile</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#exam</t>
-  </si>
-  <si>
-    <t>JP Core Physical Exam Codes#physical-findings</t>
-  </si>
-  <si>
     <t>CodeableConcept</t>
   </si>
   <si>
@@ -114,15 +99,6 @@
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/ValueSet/socialHistory-code (preferred)</t>
-  </si>
-  <si>
-    <t>jp-observation-vitalsigns</t>
-  </si>
-  <si>
-    <t>JP Core Observation VitalSigns Profile</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/vitalSigns-code (preferred)</t>
   </si>
 </sst>
 </file>
@@ -256,7 +232,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -346,10 +322,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>23</v>
@@ -381,16 +357,16 @@
         <v>14</v>
       </c>
       <c r="E4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="F4" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="G4" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>18</v>
@@ -399,76 +375,6 @@
         <v>14</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K5" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K6" t="s" s="2">
         <v>14</v>
       </c>
     </row>
